--- a/Stocks/COLPAL.xlsx
+++ b/Stocks/COLPAL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1021.9666666666667</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1062.189754698858</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1057.7125801309512</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>23.23392694438963</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>10.349999999999909</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>47.950000000000045</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.21584984358706777</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1072.6147895917907</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-3.5518378101096459</v>
       </c>
       <c r="Y67">
         <v>-0.35685095809008249</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1095</v>
+      </c>
+      <c r="D83">
+        <v>1108.4000000000001</v>
+      </c>
+      <c r="E83">
+        <v>1087.5</v>
+      </c>
+      <c r="F83">
+        <v>1100</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1098.6333333333334</v>
+      </c>
+      <c r="H83">
+        <v>1093.392240749431</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1091.8738920554119</v>
+      </c>
+      <c r="K83">
+        <v>1072.7964283570905</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>79.748163059727929</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>12.5</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>20.900000000000091</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.59808612440191122</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1079.1124297370413</v>
+      </c>
+      <c r="W83">
+        <v>1074.4380446613961</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>4.6743850756452048</v>
+      </c>
+      <c r="Y83">
+        <v>6.9287718675434595E-2</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1101</v>
+      </c>
+      <c r="D84">
+        <v>1101.55</v>
+      </c>
+      <c r="E84">
+        <v>1086.5999999999999</v>
+      </c>
+      <c r="F84">
+        <v>1095.5</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1094.55</v>
+      </c>
+      <c r="H84">
+        <v>1093.9711203747156</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>1094.0241382653203</v>
+      </c>
+      <c r="K84">
+        <v>1075.8638887221814</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>69.315763356963757</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>8.9000000000000909</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>14.950000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.59531772575251263</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1081.6335943928812</v>
+      </c>
+      <c r="W84">
+        <v>1075.9981895012927</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>5.6354048915884505</v>
+      </c>
+      <c r="Y84">
+        <v>1.1825111532580377</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1098.3499999999999</v>
+      </c>
+      <c r="D85">
+        <v>1114.8</v>
+      </c>
+      <c r="E85">
+        <v>1093.5999999999999</v>
+      </c>
+      <c r="F85">
+        <v>1107.5</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1105.3</v>
+      </c>
+      <c r="H85">
+        <v>1099.6355601873579</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1098.6409964285824</v>
+      </c>
+      <c r="K85">
+        <v>1079.8052467839188</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>78.632980566508792</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>13.900000000000091</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>21.200000000000045</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.65566037735849347</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1085.6130414093609</v>
+      </c>
+      <c r="W85">
+        <v>1078.3316569456415</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>7.2813844637194052</v>
+      </c>
+      <c r="Y85">
+        <v>2.4022858153503113</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1106</v>
+      </c>
+      <c r="D86">
+        <v>1119</v>
+      </c>
+      <c r="E86">
+        <v>1102.55</v>
+      </c>
+      <c r="F86">
+        <v>1117</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1112.8500000000001</v>
+      </c>
+      <c r="H86">
+        <v>1106.2427800936789</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1103.165219444453</v>
+      </c>
+      <c r="K86">
+        <v>1084.8596363874924</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>83.569964997359165</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>14.450000000000045</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>16.450000000000045</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.87841945288753831</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>1090.4418042694592</v>
+      </c>
+      <c r="W86">
+        <v>1081.1959786533719</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>9.2458256160873589</v>
+      </c>
+      <c r="Y86">
+        <v>3.770993775497721</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD86">
+        <f t="shared" si="35"/>
+        <v>1104.45</v>
+      </c>
+      <c r="AE86">
+        <f t="shared" si="36"/>
+        <v>1108.8500000000001</v>
+      </c>
+      <c r="AF86">
+        <f t="shared" si="37"/>
+        <v>1110.8</v>
+      </c>
+      <c r="AG86">
+        <f t="shared" si="38"/>
+        <v>1112.7</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1115</v>
+      </c>
+      <c r="D87">
+        <v>1133</v>
+      </c>
+      <c r="E87">
+        <v>1113</v>
+      </c>
+      <c r="F87">
+        <v>1122.8</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1122.9333333333334</v>
+      </c>
+      <c r="H87">
+        <v>1114.5880567135061</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1109.7951706790191</v>
+      </c>
+      <c r="K87">
+        <v>1091.1130505236051</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>86.032830123508617</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>9.7999999999999545</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>20</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.48999999999999772</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1095.4199882280041</v>
+      </c>
+      <c r="W87">
+        <v>1084.2777580123814</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>11.142230215622703</v>
+      </c>
+      <c r="Y87">
+        <v>5.2452410635227178</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1120</v>
+      </c>
+      <c r="D88">
+        <v>1126.95</v>
+      </c>
+      <c r="E88">
+        <v>1105</v>
+      </c>
+      <c r="F88">
+        <v>1113.0999999999999</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1115.0166666666667</v>
+      </c>
+      <c r="H88">
+        <v>1114.8023616900864</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1113.6073549725704</v>
+      </c>
+      <c r="K88">
+        <v>1094.1990392961372</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>65.505457049435364</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>8.0999999999999091</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>21.950000000000045</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.36902050113894724</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1098.1399900390804</v>
+      </c>
+      <c r="W88">
+        <v>1086.4127389003531</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>11.727251138727297</v>
+      </c>
+      <c r="Y88">
+        <v>6.5416430785636335</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1112.05</v>
+      </c>
+      <c r="D89">
+        <v>1120.3</v>
+      </c>
+      <c r="E89">
+        <v>1105.25</v>
+      </c>
+      <c r="F89">
+        <v>1105.25</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1110.2666666666667</v>
+      </c>
+      <c r="H89">
+        <v>1112.5345141783764</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>1115.0946094231103</v>
+      </c>
+      <c r="K89">
+        <v>1096.65480834144</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>52.768826828361568</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>15.049999999999955</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1099.2338377253757</v>
+      </c>
+      <c r="W89">
+        <v>1087.808091574401</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>11.425746150974646</v>
+      </c>
+      <c r="Y89">
+        <v>7.5184636930458364</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1105.5</v>
+      </c>
+      <c r="D90">
+        <v>1120</v>
+      </c>
+      <c r="E90">
+        <v>1105.5</v>
+      </c>
+      <c r="F90">
+        <v>1116</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1113.8333333333333</v>
+      </c>
+      <c r="H90">
+        <v>1113.1839237558547</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1116.1846962179748</v>
+      </c>
+      <c r="K90">
+        <v>1098.6204064877866</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>64.563312320893928</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>10.5</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>14.5</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1101.8132473060871</v>
+      </c>
+      <c r="W90">
+        <v>1089.8963810874084</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>11.916866218678706</v>
+      </c>
+      <c r="Y90">
+        <v>8.3981441981724103</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1113</v>
+      </c>
+      <c r="D91">
+        <v>1153</v>
+      </c>
+      <c r="E91">
+        <v>1113</v>
+      </c>
+      <c r="F91">
+        <v>1144.5</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1136.8333333333333</v>
+      </c>
+      <c r="H91">
+        <v>1125.0086285445941</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1124.3658748362027</v>
+      </c>
+      <c r="K91">
+        <v>1101.8158717127228</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>80.60977933408833</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>31.5</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1108.3804400282274</v>
+      </c>
+      <c r="W91">
+        <v>1093.9410935994522</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>14.439346428775252</v>
+      </c>
+      <c r="Y91">
+        <v>9.6063846442929783</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1145</v>
+      </c>
+      <c r="D92">
+        <v>1165.45</v>
+      </c>
+      <c r="E92">
+        <v>1134.3499999999999</v>
+      </c>
+      <c r="F92">
+        <v>1156</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1151.9333333333334</v>
+      </c>
+      <c r="H92">
+        <v>1138.4709809389637</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>1133.4956804281576</v>
+      </c>
+      <c r="K92">
+        <v>1109.0456779987844</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>84.215013748427154</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>21.650000000000091</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>31.100000000000136</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.69614147909967827</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1115.7065261777309</v>
+      </c>
+      <c r="W92">
+        <v>1098.5380496291225</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>17.168476548608396</v>
+      </c>
+      <c r="Y92">
+        <v>11.118803025156062</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1158.9000000000001</v>
+      </c>
+      <c r="D93">
+        <v>1172.9000000000001</v>
+      </c>
+      <c r="E93">
+        <v>1146</v>
+      </c>
+      <c r="F93">
+        <v>1148.3</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1155.7333333333333</v>
+      </c>
+      <c r="H93">
+        <v>1147.1021571361484</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1142.252195888567</v>
+      </c>
+      <c r="K93">
+        <v>1117.2577495546102</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>72.87457879301796</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>2.2999999999999545</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>26.900000000000091</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>8.5501858736057507E-2</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1120.7209067657723</v>
+      </c>
+      <c r="W93">
+        <v>1102.2241200269652</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>18.496786738807032</v>
+      </c>
+      <c r="Y93">
+        <v>12.594399767886255</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1159.95</v>
+      </c>
+      <c r="D94">
+        <v>1164.45</v>
+      </c>
+      <c r="E94">
+        <v>1145.45</v>
+      </c>
+      <c r="F94">
+        <v>1160</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1156.6333333333334</v>
+      </c>
+      <c r="H94">
+        <v>1151.8677452347411</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1147.1850412466633</v>
+      </c>
+      <c r="K94">
+        <v>1123.5226940980301</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>78.399328321689055</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>14.549999999999955</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.76578947368420813</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1126.7638441864226</v>
+      </c>
+      <c r="W94">
+        <v>1106.5038148397825</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>20.260029346640067</v>
+      </c>
+      <c r="Y94">
+        <v>14.127525683637018</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1158.1500000000001</v>
+      </c>
+      <c r="D95">
+        <v>1178.3499999999999</v>
+      </c>
+      <c r="E95">
+        <v>1139</v>
+      </c>
+      <c r="F95">
+        <v>1150</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1155.7833333333333</v>
+      </c>
+      <c r="H95">
+        <v>1153.8255392840372</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>1154.1105876362938</v>
+      </c>
+      <c r="K95">
+        <v>1126.962095409579</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>64.388374135213112</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>39.349999999999909</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.27954256670902222</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1130.3386373885114</v>
+      </c>
+      <c r="W95">
+        <v>1109.7257544812801</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>20.612882907231324</v>
+      </c>
+      <c r="Y95">
+        <v>15.424597128355879</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1154.25</v>
+      </c>
+      <c r="D96">
+        <v>1154.3</v>
+      </c>
+      <c r="E96">
+        <v>1132.6500000000001</v>
+      </c>
+      <c r="F96">
+        <v>1141</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1142.6499999999999</v>
+      </c>
+      <c r="H96">
+        <v>1148.2377696420185</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1154.1526792726729</v>
+      </c>
+      <c r="K96">
+        <v>1128.2260742074504</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>53.609990780976048</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>8.3499999999999091</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>21.649999999999864</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.38568129330253864</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1131.9788470210481</v>
+      </c>
+      <c r="W96">
+        <v>1112.0423652604445</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>19.936481760603556</v>
+      </c>
+      <c r="Y96">
+        <v>16.326974054805415</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1140</v>
+      </c>
+      <c r="D97">
+        <v>1144.05</v>
+      </c>
+      <c r="E97">
+        <v>1124.55</v>
+      </c>
+      <c r="F97">
+        <v>1140</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1136.2</v>
+      </c>
+      <c r="H97">
+        <v>1142.2188848210094</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1151.9076394343012</v>
+      </c>
+      <c r="K97">
+        <v>1127.4091688280171</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>52.391905035436061</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>15.450000000000045</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>19.5</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.7923076923076946</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1133.2128705562714</v>
+      </c>
+      <c r="W97">
+        <v>1114.1133011670784</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>19.099569389192993</v>
+      </c>
+      <c r="Y97">
+        <v>16.881493121682929</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1137.5999999999999</v>
+      </c>
+      <c r="D98">
+        <v>1146.4000000000001</v>
+      </c>
+      <c r="E98">
+        <v>1131.4000000000001</v>
+      </c>
+      <c r="F98">
+        <v>1141</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1139.6000000000001</v>
+      </c>
+      <c r="H98">
+        <v>1140.9094424105047</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1150.6837195600122</v>
+      </c>
+      <c r="K98">
+        <v>1128.2960201995688</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>53.706706622685573</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>9.5999999999999091</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.63999999999999391</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1134.4108904706911</v>
+      </c>
+      <c r="W98">
+        <v>1116.1049084880356</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>18.305981982655567</v>
+      </c>
+      <c r="Y98">
+        <v>17.166390893877455</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1139.75</v>
+      </c>
+      <c r="D99">
+        <v>1164</v>
+      </c>
+      <c r="E99">
+        <v>1139.75</v>
+      </c>
+      <c r="F99">
+        <v>1143</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1148.9166666666667</v>
+      </c>
+      <c r="H99">
+        <v>1144.9130545385856</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>1153.6428929911206</v>
+      </c>
+      <c r="K99">
+        <v>1130.8413490441092</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>56.696508042071805</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>3.25</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>24.25</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.13402061855670103</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1135.7322919367386</v>
+      </c>
+      <c r="W99">
+        <v>1118.0971374889218</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>17.635154447816831</v>
+      </c>
+      <c r="Y99">
+        <v>17.26014360466533</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1145.6500000000001</v>
+      </c>
+      <c r="D100">
+        <v>1152.25</v>
+      </c>
+      <c r="E100">
+        <v>1133.3</v>
+      </c>
+      <c r="F100">
+        <v>1139</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1141.5166666666667</v>
+      </c>
+      <c r="H100">
+        <v>1143.2148606026262</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1153.333361215316</v>
+      </c>
+      <c r="K100">
+        <v>1131.3877159231961</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>48.814871174356234</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>5.7000000000000455</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>18.950000000000045</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.30079155672823388</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1136.2350162541634</v>
+      </c>
+      <c r="W100">
+        <v>1119.6454976749276</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>16.589518579235801</v>
+      </c>
+      <c r="Y100">
+        <v>17.126018599579425</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1142.3</v>
+      </c>
+      <c r="D101">
+        <v>1142.3</v>
+      </c>
+      <c r="E101">
+        <v>1111.3</v>
+      </c>
+      <c r="F101">
+        <v>1114.9000000000001</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1122.8333333333333</v>
+      </c>
+      <c r="H101">
+        <v>1133.0240969679799</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1150.8815031674681</v>
+      </c>
+      <c r="K101">
+        <v>1126.9237790513748</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>23.847578237242153</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>3.6000000000001364</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.11612903225806892</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>1132.9527060612152</v>
+      </c>
+      <c r="W101">
+        <v>1119.2939793286366</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>13.658726732578543</v>
+      </c>
+      <c r="Y101">
+        <v>16.432560226179248</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1114.9000000000001</v>
+      </c>
+      <c r="D102">
+        <v>1114.9000000000001</v>
+      </c>
+      <c r="E102">
+        <v>1094</v>
+      </c>
+      <c r="F102">
+        <v>1099.4000000000001</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1102.7666666666667</v>
+      </c>
+      <c r="H102">
+        <v>1117.8953818173231</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1142.8856135746973</v>
+      </c>
+      <c r="K102">
+        <v>1119.6073837066249</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>16.898897596179122</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>5.4000000000000909</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>20.900000000000091</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.25837320574163003</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1127.7907512825666</v>
+      </c>
+      <c r="W102">
+        <v>1117.8203512302191</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>9.9704000523474861</v>
+      </c>
+      <c r="Y102">
+        <v>15.140128191412895</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1106</v>
+      </c>
+      <c r="D103">
+        <v>1106</v>
+      </c>
+      <c r="E103">
+        <v>1079.9000000000001</v>
+      </c>
+      <c r="F103">
+        <v>1085</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1090.3</v>
+      </c>
+      <c r="H103">
+        <v>1104.0976909086617</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1134.6888105580979</v>
+      </c>
+      <c r="K103">
+        <v>1110.7835206607083</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>12.626425041376901</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>5.0999999999999091</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>26.099999999999909</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.19540229885057192</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V103">
+        <v>1121.2075587775564</v>
+      </c>
+      <c r="W103">
+        <v>1115.3892141020547</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>5.8183446755017485</v>
+      </c>
+      <c r="Y103">
+        <v>13.275771488230665</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD103">
+        <f t="shared" si="35"/>
+        <v>1103</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" si="36"/>
+        <v>1096.05</v>
+      </c>
+      <c r="AF103">
+        <f t="shared" si="37"/>
+        <v>1092.95</v>
+      </c>
+      <c r="AG103">
+        <f t="shared" si="38"/>
+        <v>1089.8500000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1085</v>
+      </c>
+      <c r="D104">
+        <v>1091.8499999999999</v>
+      </c>
+      <c r="E104">
+        <v>1068</v>
+      </c>
+      <c r="F104">
+        <v>1080</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1079.95</v>
+      </c>
+      <c r="H104">
+        <v>1092.023845454331</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1125.1690748785206</v>
+      </c>
+      <c r="K104">
+        <v>1101.2760716249954</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>11.377891482807639</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>23.849999999999909</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.5031446540880522</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1114.8679343502401</v>
+      </c>
+      <c r="W104">
+        <v>1112.7677908352357</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>2.1001435150044472</v>
+      </c>
+      <c r="Y104">
+        <v>11.040645893585422</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1089</v>
+      </c>
+      <c r="D105">
+        <v>1089</v>
+      </c>
+      <c r="E105">
+        <v>1057</v>
+      </c>
+      <c r="F105">
+        <v>1060</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1068.6666666666667</v>
+      </c>
+      <c r="H105">
+        <v>1080.3452560604987</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1117.1315026832938</v>
+      </c>
+      <c r="K105">
+        <v>1091.4369445972186</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>7.6136195416892996</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>1106.4267136809724</v>
+      </c>
+      <c r="W105">
+        <v>1108.8590655881812</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-2.4323519072088402</v>
+      </c>
+      <c r="Y105">
+        <v>8.3460463334265693</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>1085.3500000000001</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>1076.8</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>1073</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>1069.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1064.5</v>
+      </c>
+      <c r="D106">
+        <v>1088</v>
+      </c>
+      <c r="E106">
+        <v>1050</v>
+      </c>
+      <c r="F106">
+        <v>1087.8499999999999</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1075.2833333333333</v>
+      </c>
+      <c r="H106">
+        <v>1077.814294696916</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>1110.6578354203396</v>
+      </c>
+      <c r="K106">
+        <v>1082.2287346867256</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>41.374362643338856</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>37.849999999999909</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>38</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.99605263157894497</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1103.5687577300534</v>
+      </c>
+      <c r="W106">
+        <v>1107.3028385075752</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-3.7340807775217399</v>
+      </c>
+      <c r="Y106">
+        <v>5.9300209112369071</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1071</v>
+      </c>
+      <c r="D107">
+        <v>1084.7</v>
+      </c>
+      <c r="E107">
+        <v>1052</v>
+      </c>
+      <c r="F107">
+        <v>1055.1500000000001</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1063.95</v>
+      </c>
+      <c r="H107">
+        <v>1070.8821473484581</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>1104.889427549153</v>
+      </c>
+      <c r="K107">
+        <v>1075.5112380896755</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>26.930550269477287</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>3.1500000000000909</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>32.700000000000045</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>9.633027522936044E-2</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V107">
+        <v>1096.119718079276</v>
+      </c>
+      <c r="W107">
+        <v>1103.4396652847918</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-7.3199472055157457</v>
+      </c>
+      <c r="Y107">
+        <v>3.2800272878863765</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="35"/>
+        <v>1080.95</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="36"/>
+        <v>1072.2</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" si="37"/>
+        <v>1068.3500000000001</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="38"/>
+        <v>1064.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
